--- a/management/周报-20181026.xlsx
+++ b/management/周报-20181026.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的参考\日报周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CN085258\git\ahkamanet\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,105 +13,106 @@
   </bookViews>
   <sheets>
     <sheet name="CornJob项目计划" sheetId="5" r:id="rId1"/>
-    <sheet name="20181024" sheetId="100" r:id="rId2"/>
-    <sheet name="20181023" sheetId="99" r:id="rId3"/>
-    <sheet name="20181022" sheetId="98" r:id="rId4"/>
-    <sheet name="20181019（周报）" sheetId="97" r:id="rId5"/>
-    <sheet name="20181019" sheetId="96" r:id="rId6"/>
-    <sheet name="20181018" sheetId="95" r:id="rId7"/>
-    <sheet name="20181017" sheetId="94" r:id="rId8"/>
-    <sheet name="20181016" sheetId="93" r:id="rId9"/>
-    <sheet name="20181015" sheetId="92" r:id="rId10"/>
-    <sheet name="20181012（周报）" sheetId="91" r:id="rId11"/>
-    <sheet name="20181012" sheetId="90" r:id="rId12"/>
-    <sheet name="20181011" sheetId="89" r:id="rId13"/>
-    <sheet name="20181010" sheetId="88" r:id="rId14"/>
-    <sheet name="20181009" sheetId="87" r:id="rId15"/>
-    <sheet name="20181008" sheetId="86" r:id="rId16"/>
-    <sheet name="20180928（周报）" sheetId="80" r:id="rId17"/>
-    <sheet name="20180928" sheetId="84" r:id="rId18"/>
-    <sheet name="20180927" sheetId="83" r:id="rId19"/>
-    <sheet name="20180926" sheetId="82" r:id="rId20"/>
-    <sheet name="20180925" sheetId="81" r:id="rId21"/>
-    <sheet name="20180921（周报）" sheetId="85" r:id="rId22"/>
-    <sheet name="20180921" sheetId="79" r:id="rId23"/>
-    <sheet name="20180920" sheetId="78" r:id="rId24"/>
-    <sheet name="20180919" sheetId="77" r:id="rId25"/>
-    <sheet name="20180918" sheetId="76" r:id="rId26"/>
-    <sheet name="20180917" sheetId="75" r:id="rId27"/>
-    <sheet name="20180914（周报）" sheetId="74" r:id="rId28"/>
-    <sheet name="20180914" sheetId="73" r:id="rId29"/>
-    <sheet name="20180913" sheetId="71" r:id="rId30"/>
-    <sheet name="20180912" sheetId="72" r:id="rId31"/>
-    <sheet name="20180911" sheetId="70" r:id="rId32"/>
-    <sheet name="20180910" sheetId="69" r:id="rId33"/>
-    <sheet name="20180907（周报）" sheetId="68" r:id="rId34"/>
-    <sheet name="20180907" sheetId="67" r:id="rId35"/>
-    <sheet name="20180906" sheetId="66" r:id="rId36"/>
-    <sheet name="20180905" sheetId="65" r:id="rId37"/>
-    <sheet name="20180903" sheetId="64" r:id="rId38"/>
-    <sheet name="20180831（周报）" sheetId="63" r:id="rId39"/>
-    <sheet name="20180831" sheetId="62" r:id="rId40"/>
-    <sheet name="20180830" sheetId="61" r:id="rId41"/>
-    <sheet name="20180829" sheetId="60" r:id="rId42"/>
-    <sheet name="20180828" sheetId="59" r:id="rId43"/>
-    <sheet name="20180827" sheetId="58" r:id="rId44"/>
-    <sheet name="20180824（周报）" sheetId="57" r:id="rId45"/>
-    <sheet name="20180824" sheetId="56" r:id="rId46"/>
-    <sheet name="20180823" sheetId="55" r:id="rId47"/>
-    <sheet name="20180822" sheetId="54" r:id="rId48"/>
-    <sheet name="20180821" sheetId="53" r:id="rId49"/>
-    <sheet name="20180820" sheetId="52" r:id="rId50"/>
-    <sheet name="20180817（周报）" sheetId="51" r:id="rId51"/>
-    <sheet name="20180817" sheetId="50" r:id="rId52"/>
-    <sheet name="20180816" sheetId="49" r:id="rId53"/>
-    <sheet name="20180815" sheetId="48" r:id="rId54"/>
-    <sheet name="20180814" sheetId="47" r:id="rId55"/>
-    <sheet name="20180813" sheetId="46" r:id="rId56"/>
-    <sheet name="20180810（周报）" sheetId="45" r:id="rId57"/>
-    <sheet name="20180810" sheetId="44" r:id="rId58"/>
-    <sheet name="20180809" sheetId="43" r:id="rId59"/>
-    <sheet name="20180808" sheetId="42" r:id="rId60"/>
-    <sheet name="20180807" sheetId="41" r:id="rId61"/>
-    <sheet name="20180806" sheetId="40" r:id="rId62"/>
-    <sheet name="20180803（周报）" sheetId="39" r:id="rId63"/>
-    <sheet name="20180803" sheetId="38" r:id="rId64"/>
-    <sheet name="20180802" sheetId="37" r:id="rId65"/>
-    <sheet name="20180801" sheetId="36" r:id="rId66"/>
-    <sheet name="20180731" sheetId="35" r:id="rId67"/>
-    <sheet name="20180730" sheetId="34" r:id="rId68"/>
-    <sheet name="20180727(周报)" sheetId="33" r:id="rId69"/>
-    <sheet name="20180727" sheetId="32" r:id="rId70"/>
-    <sheet name="20180726" sheetId="31" r:id="rId71"/>
-    <sheet name="20180725" sheetId="30" r:id="rId72"/>
-    <sheet name="20180724" sheetId="29" r:id="rId73"/>
-    <sheet name="20180723" sheetId="28" r:id="rId74"/>
-    <sheet name="20180720(周报)" sheetId="27" r:id="rId75"/>
-    <sheet name="20180720" sheetId="26" r:id="rId76"/>
-    <sheet name="20180719" sheetId="25" r:id="rId77"/>
-    <sheet name="20180718" sheetId="23" r:id="rId78"/>
-    <sheet name="20180717" sheetId="22" r:id="rId79"/>
-    <sheet name="20180716" sheetId="21" r:id="rId80"/>
-    <sheet name="20180713(周报)" sheetId="24" r:id="rId81"/>
-    <sheet name="20180713" sheetId="20" r:id="rId82"/>
-    <sheet name="20180712" sheetId="19" r:id="rId83"/>
-    <sheet name="20180711" sheetId="18" r:id="rId84"/>
-    <sheet name="20180710" sheetId="17" r:id="rId85"/>
-    <sheet name="20180709" sheetId="16" r:id="rId86"/>
-    <sheet name="20180706(周报)" sheetId="15" r:id="rId87"/>
-    <sheet name="20180706" sheetId="14" r:id="rId88"/>
-    <sheet name="20180705" sheetId="13" r:id="rId89"/>
-    <sheet name="20180704" sheetId="12" r:id="rId90"/>
-    <sheet name="20180703" sheetId="11" r:id="rId91"/>
-    <sheet name="20180702" sheetId="10" r:id="rId92"/>
-    <sheet name="20180629" sheetId="9" r:id="rId93"/>
-    <sheet name="20180628" sheetId="8" r:id="rId94"/>
-    <sheet name="20180627" sheetId="7" r:id="rId95"/>
-    <sheet name="20180626" sheetId="6" r:id="rId96"/>
-    <sheet name="20180625" sheetId="3" r:id="rId97"/>
-    <sheet name="20180621" sheetId="2" r:id="rId98"/>
-    <sheet name="20180622" sheetId="1" r:id="rId99"/>
-    <sheet name="项目计划" sheetId="4" r:id="rId100"/>
+    <sheet name="20181025" sheetId="101" r:id="rId2"/>
+    <sheet name="20181024" sheetId="100" r:id="rId3"/>
+    <sheet name="20181023" sheetId="99" r:id="rId4"/>
+    <sheet name="20181022" sheetId="98" r:id="rId5"/>
+    <sheet name="20181019（周报）" sheetId="97" r:id="rId6"/>
+    <sheet name="20181019" sheetId="96" r:id="rId7"/>
+    <sheet name="20181018" sheetId="95" r:id="rId8"/>
+    <sheet name="20181017" sheetId="94" r:id="rId9"/>
+    <sheet name="20181016" sheetId="93" r:id="rId10"/>
+    <sheet name="20181015" sheetId="92" r:id="rId11"/>
+    <sheet name="20181012（周报）" sheetId="91" r:id="rId12"/>
+    <sheet name="20181012" sheetId="90" r:id="rId13"/>
+    <sheet name="20181011" sheetId="89" r:id="rId14"/>
+    <sheet name="20181010" sheetId="88" r:id="rId15"/>
+    <sheet name="20181009" sheetId="87" r:id="rId16"/>
+    <sheet name="20181008" sheetId="86" r:id="rId17"/>
+    <sheet name="20180928（周报）" sheetId="80" r:id="rId18"/>
+    <sheet name="20180928" sheetId="84" r:id="rId19"/>
+    <sheet name="20180927" sheetId="83" r:id="rId20"/>
+    <sheet name="20180926" sheetId="82" r:id="rId21"/>
+    <sheet name="20180925" sheetId="81" r:id="rId22"/>
+    <sheet name="20180921（周报）" sheetId="85" r:id="rId23"/>
+    <sheet name="20180921" sheetId="79" r:id="rId24"/>
+    <sheet name="20180920" sheetId="78" r:id="rId25"/>
+    <sheet name="20180919" sheetId="77" r:id="rId26"/>
+    <sheet name="20180918" sheetId="76" r:id="rId27"/>
+    <sheet name="20180917" sheetId="75" r:id="rId28"/>
+    <sheet name="20180914（周报）" sheetId="74" r:id="rId29"/>
+    <sheet name="20180914" sheetId="73" r:id="rId30"/>
+    <sheet name="20180913" sheetId="71" r:id="rId31"/>
+    <sheet name="20180912" sheetId="72" r:id="rId32"/>
+    <sheet name="20180911" sheetId="70" r:id="rId33"/>
+    <sheet name="20180910" sheetId="69" r:id="rId34"/>
+    <sheet name="20180907（周报）" sheetId="68" r:id="rId35"/>
+    <sheet name="20180907" sheetId="67" r:id="rId36"/>
+    <sheet name="20180906" sheetId="66" r:id="rId37"/>
+    <sheet name="20180905" sheetId="65" r:id="rId38"/>
+    <sheet name="20180903" sheetId="64" r:id="rId39"/>
+    <sheet name="20180831（周报）" sheetId="63" r:id="rId40"/>
+    <sheet name="20180831" sheetId="62" r:id="rId41"/>
+    <sheet name="20180830" sheetId="61" r:id="rId42"/>
+    <sheet name="20180829" sheetId="60" r:id="rId43"/>
+    <sheet name="20180828" sheetId="59" r:id="rId44"/>
+    <sheet name="20180827" sheetId="58" r:id="rId45"/>
+    <sheet name="20180824（周报）" sheetId="57" r:id="rId46"/>
+    <sheet name="20180824" sheetId="56" r:id="rId47"/>
+    <sheet name="20180823" sheetId="55" r:id="rId48"/>
+    <sheet name="20180822" sheetId="54" r:id="rId49"/>
+    <sheet name="20180821" sheetId="53" r:id="rId50"/>
+    <sheet name="20180820" sheetId="52" r:id="rId51"/>
+    <sheet name="20180817（周报）" sheetId="51" r:id="rId52"/>
+    <sheet name="20180817" sheetId="50" r:id="rId53"/>
+    <sheet name="20180816" sheetId="49" r:id="rId54"/>
+    <sheet name="20180815" sheetId="48" r:id="rId55"/>
+    <sheet name="20180814" sheetId="47" r:id="rId56"/>
+    <sheet name="20180813" sheetId="46" r:id="rId57"/>
+    <sheet name="20180810（周报）" sheetId="45" r:id="rId58"/>
+    <sheet name="20180810" sheetId="44" r:id="rId59"/>
+    <sheet name="20180809" sheetId="43" r:id="rId60"/>
+    <sheet name="20180808" sheetId="42" r:id="rId61"/>
+    <sheet name="20180807" sheetId="41" r:id="rId62"/>
+    <sheet name="20180806" sheetId="40" r:id="rId63"/>
+    <sheet name="20180803（周报）" sheetId="39" r:id="rId64"/>
+    <sheet name="20180803" sheetId="38" r:id="rId65"/>
+    <sheet name="20180802" sheetId="37" r:id="rId66"/>
+    <sheet name="20180801" sheetId="36" r:id="rId67"/>
+    <sheet name="20180731" sheetId="35" r:id="rId68"/>
+    <sheet name="20180730" sheetId="34" r:id="rId69"/>
+    <sheet name="20180727(周报)" sheetId="33" r:id="rId70"/>
+    <sheet name="20180727" sheetId="32" r:id="rId71"/>
+    <sheet name="20180726" sheetId="31" r:id="rId72"/>
+    <sheet name="20180725" sheetId="30" r:id="rId73"/>
+    <sheet name="20180724" sheetId="29" r:id="rId74"/>
+    <sheet name="20180723" sheetId="28" r:id="rId75"/>
+    <sheet name="20180720(周报)" sheetId="27" r:id="rId76"/>
+    <sheet name="20180720" sheetId="26" r:id="rId77"/>
+    <sheet name="20180719" sheetId="25" r:id="rId78"/>
+    <sheet name="20180718" sheetId="23" r:id="rId79"/>
+    <sheet name="20180717" sheetId="22" r:id="rId80"/>
+    <sheet name="20180716" sheetId="21" r:id="rId81"/>
+    <sheet name="20180713(周报)" sheetId="24" r:id="rId82"/>
+    <sheet name="20180713" sheetId="20" r:id="rId83"/>
+    <sheet name="20180712" sheetId="19" r:id="rId84"/>
+    <sheet name="20180711" sheetId="18" r:id="rId85"/>
+    <sheet name="20180710" sheetId="17" r:id="rId86"/>
+    <sheet name="20180709" sheetId="16" r:id="rId87"/>
+    <sheet name="20180706(周报)" sheetId="15" r:id="rId88"/>
+    <sheet name="20180706" sheetId="14" r:id="rId89"/>
+    <sheet name="20180705" sheetId="13" r:id="rId90"/>
+    <sheet name="20180704" sheetId="12" r:id="rId91"/>
+    <sheet name="20180703" sheetId="11" r:id="rId92"/>
+    <sheet name="20180702" sheetId="10" r:id="rId93"/>
+    <sheet name="20180629" sheetId="9" r:id="rId94"/>
+    <sheet name="20180628" sheetId="8" r:id="rId95"/>
+    <sheet name="20180627" sheetId="7" r:id="rId96"/>
+    <sheet name="20180626" sheetId="6" r:id="rId97"/>
+    <sheet name="20180625" sheetId="3" r:id="rId98"/>
+    <sheet name="20180621" sheetId="2" r:id="rId99"/>
+    <sheet name="20180622" sheetId="1" r:id="rId100"/>
+    <sheet name="项目计划" sheetId="4" r:id="rId101"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="565">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2352,6 +2353,18 @@
   </si>
   <si>
     <t>新产品配置，产品配置变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankie Guan, Angela Liang,Amy Tang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件,部署计划，部署变更单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>York Yang，Yvonne Gong，Kelvin Pan，Anthony Zeng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3463,6 +3476,340 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet97"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="33.25" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet98"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -3611,23 +3958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet98"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:H12"/>
@@ -3762,7 +4093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G7"/>
@@ -3912,7 +4243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G8"/>
@@ -4083,7 +4414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G7"/>
@@ -4233,7 +4564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G7"/>
@@ -4385,7 +4716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G7"/>
@@ -4533,7 +4864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H13"/>
@@ -4682,7 +5013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G7"/>
@@ -4830,7 +5161,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet100"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G7"/>
@@ -4980,156 +5461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G8"/>
@@ -5300,7 +5632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G9"/>
@@ -5494,7 +5826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:H13"/>
@@ -5643,7 +5975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:G8"/>
@@ -5816,7 +6148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:G8"/>
@@ -5989,7 +6321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:G10"/>
@@ -6198,7 +6530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:G9"/>
@@ -6388,7 +6720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:G8"/>
@@ -6561,7 +6893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:H15"/>
@@ -6736,7 +7068,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet101"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:G7"/>
@@ -6888,157 +7370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet99"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:G7"/>
@@ -7192,7 +7524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:G7"/>
@@ -7344,7 +7676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:G7"/>
@@ -7496,7 +7828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:G9"/>
@@ -7688,7 +8020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H11"/>
@@ -7814,7 +8146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:G8"/>
@@ -7989,7 +8321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:G7"/>
@@ -8139,7 +8471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:G7"/>
@@ -8289,7 +8621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:G7"/>
@@ -8441,7 +8773,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet99"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:H13"/>
@@ -8584,157 +9066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:G9"/>
@@ -8924,7 +9256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:G8"/>
@@ -9097,7 +9429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:G7"/>
@@ -9247,7 +9579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:G9"/>
@@ -9437,7 +9769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:G8"/>
@@ -9608,7 +9940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:H13"/>
@@ -9755,7 +10087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:G8"/>
@@ -9924,7 +10256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:G7"/>
@@ -10076,7 +10408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:G7"/>
@@ -10230,7 +10562,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:G7"/>
@@ -10384,7 +10866,1384 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet48"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet49"/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet50"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet51"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet52"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet53"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet54"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet55"/>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="17">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="17">
+        <v>3</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="17">
+        <v>5</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet56"/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H13"/>
@@ -10538,1384 +12397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet48"/>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet49"/>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>2</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
-        <v>5</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet50"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet51"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet52"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet53"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.43</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet54"/>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.43</v>
-      </c>
-      <c r="F4" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet55"/>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="27.125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
-        <v>5</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet56"/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.37</v>
-      </c>
-      <c r="F3" s="4">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:G7"/>
@@ -12091,180 +12573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>552</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:G6"/>
@@ -12419,7 +12728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:G6"/>
@@ -12574,7 +12883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:G6"/>
@@ -12729,7 +13038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:H14"/>
@@ -12879,7 +13188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:G5"/>
@@ -13011,7 +13320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:G5"/>
@@ -13139,7 +13448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:G6"/>
@@ -13288,7 +13597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:G7"/>
@@ -13458,7 +13767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:G7"/>
@@ -13628,7 +13937,180 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:H14"/>
@@ -13772,178 +14254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:G7"/>
@@ -14113,7 +14424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:G5"/>
@@ -14241,7 +14552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:G5"/>
@@ -14369,7 +14680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:G5"/>
@@ -14497,7 +14808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:G6"/>
@@ -14648,7 +14959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:H13"/>
@@ -14796,7 +15107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:G6"/>
@@ -14947,7 +15258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:G5"/>
@@ -15075,7 +15386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet76"/>
   <dimension ref="A1:G9"/>
@@ -15289,7 +15600,178 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet77"/>
   <dimension ref="A1:G7"/>
@@ -15461,157 +15943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet78"/>
   <dimension ref="A1:G8"/>
@@ -15804,7 +16136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet79"/>
   <dimension ref="A1:H15"/>
@@ -15977,7 +16309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet80"/>
   <dimension ref="A1:G8"/>
@@ -16164,7 +16496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet81"/>
   <dimension ref="A1:G4"/>
@@ -16273,7 +16605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet82"/>
   <dimension ref="A1:G14"/>
@@ -16434,7 +16766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet83"/>
   <dimension ref="A1:G16"/>
@@ -16639,7 +16971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet84"/>
   <dimension ref="A1:G18"/>
@@ -16882,7 +17214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:H14"/>
@@ -17052,7 +17384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet86"/>
   <dimension ref="A1:G18"/>
@@ -17332,7 +17664,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet87"/>
   <dimension ref="A1:G5"/>
@@ -17462,159 +17944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>534</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>526</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="26"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet88"/>
   <dimension ref="A1:G6"/>
@@ -17767,7 +18097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet89"/>
   <dimension ref="A1:G6"/>
@@ -17920,7 +18250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet90"/>
   <dimension ref="A1:G6"/>
@@ -18073,7 +18403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet91"/>
   <dimension ref="A1:G3"/>
@@ -18165,7 +18495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet92"/>
   <dimension ref="A1:G6"/>
@@ -18320,7 +18650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet93"/>
   <dimension ref="A1:G6"/>
@@ -18473,7 +18803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet94"/>
   <dimension ref="A1:G5"/>
@@ -18603,7 +18933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet95"/>
   <dimension ref="A1:G5"/>
@@ -18731,7 +19061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet96"/>
   <dimension ref="A1:G8"/>
@@ -18907,170 +19237,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet97"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/management/周报-20181026.xlsx
+++ b/management/周报-20181026.xlsx
@@ -5167,7 +5167,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/management/周报-20181026.xlsx
+++ b/management/周报-20181026.xlsx
@@ -5167,7 +5167,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/management/周报-20181026.xlsx
+++ b/management/周报-20181026.xlsx
@@ -5167,7 +5167,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/management/周报-20181026.xlsx
+++ b/management/周报-20181026.xlsx
@@ -5167,7 +5167,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
